--- a/lg_confound_ages.xlsx
+++ b/lg_confound_ages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisabeth/Desktop/UMASS/BKonline data/BK-Online-Replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BED67A-C313-0940-8914-389DD9829B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABD649A-C0C4-244D-8703-F8397C63A856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12280" yWindow="1000" windowWidth="16140" windowHeight="15920" xr2:uid="{2BD8373F-B028-5343-8E47-E8252E163E4E}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/lg_confound_ages.xlsx
+++ b/lg_confound_ages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisabeth/Desktop/UMASS/BKonline data/BK-Online-Replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABD649A-C0C4-244D-8703-F8397C63A856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F000968-1F4D-E74A-A78B-240D68AF611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12280" yWindow="1000" windowWidth="16140" windowHeight="15920" xr2:uid="{2BD8373F-B028-5343-8E47-E8252E163E4E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>blg168</t>
-  </si>
-  <si>
-    <t>blg169</t>
   </si>
   <si>
     <t>blg170</t>
@@ -533,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81659298-82CF-2B4F-A403-6E0BB58AB874}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,7 +551,7 @@
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3">
         <v>7</v>
@@ -725,7 +722,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -736,7 +733,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -747,7 +744,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -755,21 +752,21 @@
         <v>21</v>
       </c>
       <c r="B20" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3">
-        <v>22</v>
+      <c r="B21" s="2">
+        <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -780,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -791,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -802,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -813,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -821,10 +818,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -832,10 +829,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -843,10 +840,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -857,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -868,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -879,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -890,18 +887,18 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2">
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -912,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -923,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -934,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -945,18 +942,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
